--- a/medicine/Mort/Nécropole_nationale_de_Saint-Pol-sur-Ternoise/Nécropole_nationale_de_Saint-Pol-sur-Ternoise.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Saint-Pol-sur-Ternoise/Nécropole_nationale_de_Saint-Pol-sur-Ternoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Pol-sur-Ternoise</t>
+          <t>Nécropole_nationale_de_Saint-Pol-sur-Ternoise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Saint-Pol-sur-Ternoise est un cimetière militaire français situé sur le territoire de la commune de Saint-Pol-sur-Ternoise, dans le département du Pas-de-Calais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Pol-sur-Ternoise</t>
+          <t>Nécropole_nationale_de_Saint-Pol-sur-Ternoise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire de Saint-Pol rassemble des corps de soldats français tombés au cours des batailles d’Artois[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire de Saint-Pol rassemble des corps de soldats français tombés au cours des batailles d’Artois.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Pol-sur-Ternoise</t>
+          <t>Nécropole_nationale_de_Saint-Pol-sur-Ternoise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole, qui jouxte le cimetière communal Est, compte 724 tombes individuelles de soldats français et une tombe de soldat belge[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole, qui jouxte le cimetière communal Est, compte 724 tombes individuelles de soldats français et une tombe de soldat belge.
 Un cimetière militaire britannique relie la nécropole nationale au cimetière communal est.
 </t>
         </is>
